--- a/Test/settingsrc/Test.xlsx
+++ b/Test/settingsrc/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17655" windowHeight="4425"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$F$8</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$B$5:$F$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$G$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$B$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>我是注释列</t>
   </si>
@@ -65,10 +65,22 @@
     <t>Value</t>
   </si>
   <si>
-    <t>CommentA</t>
-  </si>
-  <si>
-    <t>#B</t>
+    <t>Num1</t>
+  </si>
+  <si>
+    <t>Num2</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Str1</t>
+  </si>
+  <si>
+    <t>Str2</t>
+  </si>
+  <si>
+    <t>Strs</t>
   </si>
   <si>
     <t>string</t>
@@ -80,16 +92,19 @@
     <t>I18N</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>ID Column/编号/主键</t>
   </si>
   <si>
     <t>Name/名字</t>
   </si>
   <si>
-    <t>CommentA注释列</t>
-  </si>
-  <si>
-    <t>CommentB井号注释列</t>
+    <t>数字计算公式</t>
+  </si>
+  <si>
+    <t>字符串拼接</t>
   </si>
   <si>
     <t>TestKey</t>
@@ -98,16 +113,16 @@
     <t>TestValue</t>
   </si>
   <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>注释行</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>井号开头的，注释行</t>
   </si>
   <si>
     <t>TestKey2</t>
@@ -121,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -152,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -159,61 +182,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -242,50 +288,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +332,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,73 +440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,96 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -520,19 +535,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -605,6 +607,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,15 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +649,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +661,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,16 +801,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1271,25 +1267,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="4" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,93 +1299,160 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G7" si="0">SUM(E4,F4)</f>
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="str">
+        <f>H4&amp;I4</f>
+        <v>helloworld</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+    <row r="5" spans="2:7">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+    <row r="6" spans="3:7">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F8"/>
+  <autoFilter ref="B3:G7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
